--- a/analysis/xls/regressions.xlsx
+++ b/analysis/xls/regressions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tschwoer\Documents\GitHub\airbnb\analysis\xls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9F0CDAA8-139C-4C38-91BF-6EFAAA68ED20}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B6213AC-1B05-439A-BD03-3C0107E3BEA8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6930" xr2:uid="{AFFE65F0-BC1E-4D23-B065-AFDBF62FD86B}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="26">
   <si>
     <t>R² = 0.44</t>
   </si>
@@ -33,42 +33,6 @@
     <t>(Intercept)</t>
   </si>
   <si>
-    <t>room_typeHotel room</t>
-  </si>
-  <si>
-    <t>room_typePrivate room</t>
-  </si>
-  <si>
-    <t>room_typeShared room</t>
-  </si>
-  <si>
-    <t>accommodates</t>
-  </si>
-  <si>
-    <t>tvTRUE</t>
-  </si>
-  <si>
-    <t>wifiTRUE</t>
-  </si>
-  <si>
-    <t>poolTRUE</t>
-  </si>
-  <si>
-    <t>altbauTRUE</t>
-  </si>
-  <si>
-    <t>parkingTRUE</t>
-  </si>
-  <si>
-    <t>n_attractions</t>
-  </si>
-  <si>
-    <t>n_restaurants</t>
-  </si>
-  <si>
-    <t>stop_dist</t>
-  </si>
-  <si>
     <t>p-value</t>
   </si>
   <si>
@@ -76,6 +40,69 @@
   </si>
   <si>
     <t>Confidence Interval</t>
+  </si>
+  <si>
+    <t>Type: Hotel room</t>
+  </si>
+  <si>
+    <t>Type: Private room</t>
+  </si>
+  <si>
+    <t>Type: Shared room</t>
+  </si>
+  <si>
+    <t>Accommodates</t>
+  </si>
+  <si>
+    <t>TV</t>
+  </si>
+  <si>
+    <t>WiFi</t>
+  </si>
+  <si>
+    <t>Pool</t>
+  </si>
+  <si>
+    <t>Altbau</t>
+  </si>
+  <si>
+    <t>Parking</t>
+  </si>
+  <si>
+    <t>Number of Attractions</t>
+  </si>
+  <si>
+    <t>Number of Restaurants</t>
+  </si>
+  <si>
+    <t>Distance to train/tram stop</t>
+  </si>
+  <si>
+    <t>1 x</t>
+  </si>
+  <si>
+    <t>3 x</t>
+  </si>
+  <si>
+    <t>6 x</t>
+  </si>
+  <si>
+    <t>22 x</t>
+  </si>
+  <si>
+    <t>Predicted Price:</t>
+  </si>
+  <si>
+    <t>100 x</t>
+  </si>
+  <si>
+    <t>Predicted</t>
+  </si>
+  <si>
+    <t>Actual</t>
+  </si>
+  <si>
+    <t>Error</t>
   </si>
 </sst>
 </file>
@@ -83,10 +110,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="168" formatCode="0.000"/>
-    <numFmt numFmtId="170" formatCode="[$$-409]#,##0.00"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
+    <numFmt numFmtId="165" formatCode="[$$-409]#,##0.00"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -98,6 +125,28 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -177,34 +226,63 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="170" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="170" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="170" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="170" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="170" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="1" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="2" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -521,271 +599,364 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E966F5B-9861-40EC-B96D-A4F40E3044F2}">
-  <dimension ref="A1:E17"/>
+  <dimension ref="A1:L22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+      <selection activeCell="N2" sqref="N2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="23" style="1" customWidth="1"/>
+    <col min="1" max="1" width="25.54296875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="4.81640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="9.1796875" customWidth="1"/>
+    <col min="4" max="4" width="7.1796875" customWidth="1"/>
+    <col min="5" max="7" width="9.1796875" customWidth="1"/>
+    <col min="9" max="12" width="10.90625" style="34"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" ht="15" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2"/>
-      <c r="B1" s="3"/>
-      <c r="C1" s="4" t="s">
+      <c r="B1" s="2"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="22"/>
+      <c r="G1" s="3"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2" s="19"/>
+      <c r="B2" s="19"/>
+      <c r="C2" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="20"/>
+      <c r="E2" s="21">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="F2" s="21">
+        <v>0.97499999999999998</v>
+      </c>
+      <c r="G2" s="20" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A3" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="5">
+        <v>32.28</v>
+      </c>
+      <c r="D3" s="23">
+        <f>C3</f>
+        <v>32.28</v>
+      </c>
+      <c r="E3" s="5">
+        <v>29.74</v>
+      </c>
+      <c r="F3" s="5">
+        <v>34.82</v>
+      </c>
+      <c r="G3" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A4" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="8">
+        <v>9.8699999999999992</v>
+      </c>
+      <c r="D4" s="24">
+        <f>C4 * 3</f>
+        <v>29.61</v>
+      </c>
+      <c r="E4" s="8">
+        <v>9.4499999999999993</v>
+      </c>
+      <c r="F4" s="8">
+        <v>10.29</v>
+      </c>
+      <c r="G4" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A5" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="29"/>
+      <c r="C5" s="8">
+        <v>27.52</v>
+      </c>
+      <c r="D5" s="24"/>
+      <c r="E5" s="8">
+        <v>21.49</v>
+      </c>
+      <c r="F5" s="8">
+        <v>33.56</v>
+      </c>
+      <c r="G5" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A6" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="29"/>
+      <c r="C6" s="8">
+        <v>-21.57</v>
+      </c>
+      <c r="D6" s="24"/>
+      <c r="E6" s="8">
+        <v>-22.43</v>
+      </c>
+      <c r="F6" s="8">
+        <v>-20.7</v>
+      </c>
+      <c r="G6" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A7" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="29"/>
+      <c r="C7" s="8">
+        <v>-32.450000000000003</v>
+      </c>
+      <c r="D7" s="24"/>
+      <c r="E7" s="8">
+        <v>-37.89</v>
+      </c>
+      <c r="F7" s="8">
+        <v>-27.01</v>
+      </c>
+      <c r="G7" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A8" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="29"/>
+      <c r="C8" s="8">
+        <v>6.75</v>
+      </c>
+      <c r="D8" s="24"/>
+      <c r="E8" s="8">
+        <v>5.91</v>
+      </c>
+      <c r="F8" s="8">
+        <v>7.59</v>
+      </c>
+      <c r="G8" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A9" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="8">
+        <v>1.66</v>
+      </c>
+      <c r="D9" s="24">
+        <f>C9</f>
+        <v>1.66</v>
+      </c>
+      <c r="E9" s="8">
+        <v>-0.48</v>
+      </c>
+      <c r="F9" s="8">
+        <v>3.8</v>
+      </c>
+      <c r="G9" s="9">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A10" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="29"/>
+      <c r="C10" s="8">
+        <v>9.56</v>
+      </c>
+      <c r="D10" s="24"/>
+      <c r="E10" s="8">
+        <v>0.84</v>
+      </c>
+      <c r="F10" s="8">
+        <v>18.28</v>
+      </c>
+      <c r="G10" s="9">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A11" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" s="29"/>
+      <c r="C11" s="8">
+        <v>1.63</v>
+      </c>
+      <c r="D11" s="24"/>
+      <c r="E11" s="8">
+        <v>0.36</v>
+      </c>
+      <c r="F11" s="8">
+        <v>2.89</v>
+      </c>
+      <c r="G11" s="9">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A12" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" s="29"/>
+      <c r="C12" s="8">
+        <v>2.93</v>
+      </c>
+      <c r="D12" s="24"/>
+      <c r="E12" s="8">
+        <v>2.12</v>
+      </c>
+      <c r="F12" s="8">
+        <v>3.74</v>
+      </c>
+      <c r="G12" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A13" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" s="17">
+        <v>0.73</v>
+      </c>
+      <c r="D13" s="25">
+        <f>C13*6</f>
+        <v>4.38</v>
+      </c>
+      <c r="E13" s="17">
+        <v>0.63</v>
+      </c>
+      <c r="F13" s="17">
+        <v>0.83</v>
+      </c>
+      <c r="G13" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A14" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14" s="11">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="D14" s="26">
+        <f>C14*22</f>
+        <v>6.38</v>
+      </c>
+      <c r="E14" s="11">
+        <v>0.25</v>
+      </c>
+      <c r="F14" s="11">
+        <v>0.33</v>
+      </c>
+      <c r="G14" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A15" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="D1" s="4"/>
-      <c r="E1" s="3"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A2" s="20"/>
-      <c r="B2" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="C2" s="22">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="D2" s="22">
-        <v>0.97499999999999998</v>
-      </c>
-      <c r="E2" s="21" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A3" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="6">
-        <v>32.28</v>
-      </c>
-      <c r="C3" s="6">
-        <v>29.74</v>
-      </c>
-      <c r="D3" s="6">
-        <v>34.82</v>
-      </c>
-      <c r="E3" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A4" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="9">
-        <v>27.52</v>
-      </c>
-      <c r="C4" s="9">
-        <v>21.49</v>
-      </c>
-      <c r="D4" s="9">
-        <v>33.56</v>
-      </c>
-      <c r="E4" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A5" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="9">
-        <v>-21.57</v>
-      </c>
-      <c r="C5" s="9">
-        <v>-22.43</v>
-      </c>
-      <c r="D5" s="9">
-        <v>-20.7</v>
-      </c>
-      <c r="E5" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A6" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="9">
-        <v>-32.450000000000003</v>
-      </c>
-      <c r="C6" s="9">
-        <v>-37.89</v>
-      </c>
-      <c r="D6" s="9">
-        <v>-27.01</v>
-      </c>
-      <c r="E6" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A7" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" s="9">
-        <v>9.8699999999999992</v>
-      </c>
-      <c r="C7" s="9">
-        <v>9.4499999999999993</v>
-      </c>
-      <c r="D7" s="9">
-        <v>10.29</v>
-      </c>
-      <c r="E7" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A8" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" s="9">
-        <v>6.75</v>
-      </c>
-      <c r="C8" s="9">
-        <v>5.91</v>
-      </c>
-      <c r="D8" s="9">
-        <v>7.59</v>
-      </c>
-      <c r="E8" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A9" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" s="9">
-        <v>1.66</v>
-      </c>
-      <c r="C9" s="9">
-        <v>-0.48</v>
-      </c>
-      <c r="D9" s="9">
-        <v>3.8</v>
-      </c>
-      <c r="E9" s="10">
-        <v>0.13</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A10" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" s="9">
-        <v>9.56</v>
-      </c>
-      <c r="C10" s="9">
-        <v>0.84</v>
-      </c>
-      <c r="D10" s="9">
-        <v>18.28</v>
-      </c>
-      <c r="E10" s="10">
-        <v>0.03</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A11" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" s="9">
-        <v>1.63</v>
-      </c>
-      <c r="C11" s="9">
-        <v>0.36</v>
-      </c>
-      <c r="D11" s="9">
-        <v>2.89</v>
-      </c>
-      <c r="E11" s="10">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B12" s="9">
-        <v>2.93</v>
-      </c>
-      <c r="C12" s="9">
-        <v>2.12</v>
-      </c>
-      <c r="D12" s="9">
-        <v>3.74</v>
-      </c>
-      <c r="E12" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A13" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="B13" s="18">
-        <v>0.73</v>
-      </c>
-      <c r="C13" s="18">
-        <v>0.63</v>
-      </c>
-      <c r="D13" s="18">
-        <v>0.83</v>
-      </c>
-      <c r="E13" s="19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A14" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="B14" s="12">
-        <v>0.28999999999999998</v>
-      </c>
-      <c r="C14" s="12">
-        <v>0.25</v>
-      </c>
-      <c r="D14" s="12">
-        <v>0.33</v>
-      </c>
-      <c r="E14" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="B15" s="15">
-        <v>0</v>
-      </c>
-      <c r="C15" s="15">
-        <v>0</v>
-      </c>
-      <c r="D15" s="15">
-        <v>0</v>
-      </c>
-      <c r="E15" s="16">
+      <c r="B15" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15" s="14">
+        <v>0</v>
+      </c>
+      <c r="D15" s="27">
+        <f>C15*6</f>
+        <v>0</v>
+      </c>
+      <c r="E15" s="14">
+        <v>0</v>
+      </c>
+      <c r="F15" s="14">
+        <v>0</v>
+      </c>
+      <c r="G15" s="15">
         <v>0.56000000000000005</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="15" thickTop="1" x14ac:dyDescent="0.35"/>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:7" ht="15" thickTop="1" x14ac:dyDescent="0.35"/>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
-        <v>0</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="I17" s="35" t="s">
+        <v>23</v>
+      </c>
+      <c r="J17" s="36" t="s">
+        <v>24</v>
+      </c>
+      <c r="K17" s="36" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A18" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I18" s="37">
+        <f>SUM(D3:D15)</f>
+        <v>74.309999999999988</v>
+      </c>
+      <c r="J18" s="38">
+        <v>90</v>
+      </c>
+      <c r="K18" s="39">
+        <f>J18-I18</f>
+        <v>15.690000000000012</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="G22" s="33"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
